--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/DF/20/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/DF/20/seed4/result_data_RandomForest.xlsx
@@ -474,7 +474,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>12.22499999999999</v>
+        <v>11.8725</v>
       </c>
     </row>
     <row r="3">
@@ -491,7 +491,7 @@
         <v>-6.85</v>
       </c>
       <c r="E3" t="n">
-        <v>12.64819999999999</v>
+        <v>12.81169999999999</v>
       </c>
     </row>
     <row r="4">
@@ -525,7 +525,7 @@
         <v>-6.27</v>
       </c>
       <c r="E5" t="n">
-        <v>12.36269999999999</v>
+        <v>12.70799999999998</v>
       </c>
     </row>
     <row r="6">
@@ -590,7 +590,7 @@
         <v>-13.02</v>
       </c>
       <c r="D9" t="n">
-        <v>-8.371300000000002</v>
+        <v>-8.411699999999998</v>
       </c>
       <c r="E9" t="n">
         <v>12.31</v>
@@ -627,7 +627,7 @@
         <v>-8.01</v>
       </c>
       <c r="E11" t="n">
-        <v>12.97099999999999</v>
+        <v>13.02409999999999</v>
       </c>
     </row>
     <row r="12">
@@ -644,7 +644,7 @@
         <v>-10.06</v>
       </c>
       <c r="E12" t="n">
-        <v>13.89719999999999</v>
+        <v>13.8114</v>
       </c>
     </row>
     <row r="13">
@@ -658,7 +658,7 @@
         <v>-13.63</v>
       </c>
       <c r="D13" t="n">
-        <v>-7.467699999999999</v>
+        <v>-7.200599999999996</v>
       </c>
       <c r="E13" t="n">
         <v>12.56</v>
@@ -709,7 +709,7 @@
         <v>-9.779999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>-8.653499999999996</v>
+        <v>-8.659399999999998</v>
       </c>
       <c r="E16" t="n">
         <v>13.16</v>
@@ -743,7 +743,7 @@
         <v>-15.19</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.231599999999988</v>
+        <v>-8.08979999999999</v>
       </c>
       <c r="E18" t="n">
         <v>12.54</v>
@@ -777,7 +777,7 @@
         <v>-14.65</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.919500000000005</v>
+        <v>-7.835500000000003</v>
       </c>
       <c r="E20" t="n">
         <v>13.73</v>
@@ -797,7 +797,7 @@
         <v>-8.890000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>13.8213</v>
+        <v>13.65410000000001</v>
       </c>
     </row>
     <row r="22">
